--- a/pred_ohlcv/54/2019-10-19 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 MTL ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -411,7 +416,7 @@
         <v>359</v>
       </c>
       <c r="C2" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D2" t="n">
         <v>359</v>
@@ -420,12 +425,15 @@
         <v>358</v>
       </c>
       <c r="F2" t="n">
-        <v>604.9766</v>
+        <v>1085.0043</v>
       </c>
       <c r="G2" t="n">
-        <v>360.6333333333333</v>
+        <v>360.7333333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>359</v>
       </c>
       <c r="C3" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F3" t="n">
-        <v>731.0111000000001</v>
+        <v>604.9766</v>
       </c>
       <c r="G3" t="n">
-        <v>360.5666666666667</v>
+        <v>360.6333333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,10 +471,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C4" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D4" t="n">
         <v>360</v>
@@ -472,12 +483,15 @@
         <v>359</v>
       </c>
       <c r="F4" t="n">
-        <v>1075</v>
+        <v>731.0111000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>360.5333333333334</v>
+        <v>360.5666666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,10 +500,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C5" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D5" t="n">
         <v>360</v>
@@ -498,12 +512,15 @@
         <v>359</v>
       </c>
       <c r="F5" t="n">
-        <v>1002</v>
+        <v>1075</v>
       </c>
       <c r="G5" t="n">
-        <v>360.5</v>
+        <v>360.5333333333334</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,10 +529,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C6" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D6" t="n">
         <v>360</v>
@@ -524,12 +541,15 @@
         <v>359</v>
       </c>
       <c r="F6" t="n">
-        <v>546.3169</v>
+        <v>1002</v>
       </c>
       <c r="G6" t="n">
-        <v>360.4666666666666</v>
+        <v>360.5</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,21 +561,24 @@
         <v>360</v>
       </c>
       <c r="C7" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D7" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E7" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F7" t="n">
-        <v>754.9471</v>
+        <v>546.3169</v>
       </c>
       <c r="G7" t="n">
-        <v>360.4166666666667</v>
+        <v>360.4666666666666</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -573,15 +596,18 @@
         <v>361</v>
       </c>
       <c r="E8" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F8" t="n">
-        <v>115.4598</v>
+        <v>754.9471</v>
       </c>
       <c r="G8" t="n">
-        <v>360.3666666666667</v>
+        <v>360.4166666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C9" t="n">
         <v>361</v>
@@ -599,15 +625,18 @@
         <v>361</v>
       </c>
       <c r="E9" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>115.4598</v>
       </c>
       <c r="G9" t="n">
-        <v>360.3166666666667</v>
+        <v>360.3666666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C10" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D10" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E10" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F10" t="n">
-        <v>1042.3834</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="n">
-        <v>360.2333333333333</v>
+        <v>360.3166666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C11" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D11" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E11" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>1042.3834</v>
       </c>
       <c r="G11" t="n">
         <v>360.2333333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C12" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D12" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E12" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F12" t="n">
-        <v>1.1819</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>360.1666666666667</v>
+        <v>360.2333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C13" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D13" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E13" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>1.1819</v>
       </c>
       <c r="G13" t="n">
         <v>360.1666666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C14" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D14" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E14" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F14" t="n">
-        <v>543.1654</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>360.1666666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C15" t="n">
         <v>359</v>
       </c>
       <c r="D15" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E15" t="n">
         <v>359</v>
       </c>
       <c r="F15" t="n">
-        <v>502.1819</v>
+        <v>543.1654</v>
       </c>
       <c r="G15" t="n">
-        <v>360.1333333333333</v>
+        <v>360.1666666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C16" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D16" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E16" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>502.1819</v>
       </c>
       <c r="G16" t="n">
-        <v>360.1</v>
+        <v>360.1333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C17" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D17" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E17" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F17" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>360.05</v>
+        <v>360.1</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,21 +880,24 @@
         <v>358</v>
       </c>
       <c r="C18" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D18" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E18" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F18" t="n">
-        <v>4231.4083</v>
+        <v>55</v>
       </c>
       <c r="G18" t="n">
-        <v>360.0333333333334</v>
+        <v>360.05</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,21 +909,24 @@
         <v>358</v>
       </c>
       <c r="C19" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D19" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E19" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F19" t="n">
-        <v>321.9543</v>
+        <v>4231.4083</v>
       </c>
       <c r="G19" t="n">
-        <v>359.9833333333333</v>
+        <v>360.0333333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C20" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D20" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E20" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F20" t="n">
-        <v>500</v>
+        <v>321.9543</v>
       </c>
       <c r="G20" t="n">
-        <v>359.9</v>
+        <v>359.9833333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>357</v>
       </c>
       <c r="F21" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G21" t="n">
-        <v>359.8333333333333</v>
+        <v>359.9</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>357</v>
       </c>
       <c r="F22" t="n">
-        <v>4066.0823</v>
+        <v>300</v>
       </c>
       <c r="G22" t="n">
-        <v>359.7833333333334</v>
+        <v>359.8333333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C23" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D23" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E23" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F23" t="n">
-        <v>192.1197</v>
+        <v>4066.0823</v>
       </c>
       <c r="G23" t="n">
-        <v>359.6666666666667</v>
+        <v>359.7833333333334</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>356</v>
       </c>
       <c r="F24" t="n">
-        <v>3319.0279</v>
+        <v>192.1197</v>
       </c>
       <c r="G24" t="n">
-        <v>359.5833333333333</v>
+        <v>359.6666666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>356</v>
       </c>
       <c r="C25" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D25" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E25" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F25" t="n">
-        <v>1444</v>
+        <v>3319.0279</v>
       </c>
       <c r="G25" t="n">
-        <v>359.5</v>
+        <v>359.5833333333333</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C26" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D26" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E26" t="n">
         <v>355</v>
       </c>
       <c r="F26" t="n">
-        <v>7656.81</v>
+        <v>1444</v>
       </c>
       <c r="G26" t="n">
-        <v>359.3833333333333</v>
+        <v>359.5</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C27" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D27" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E27" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F27" t="n">
-        <v>1193.114</v>
+        <v>7656.81</v>
       </c>
       <c r="G27" t="n">
-        <v>359.3</v>
+        <v>359.3833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>357</v>
       </c>
       <c r="F28" t="n">
-        <v>18.778</v>
+        <v>1193.114</v>
       </c>
       <c r="G28" t="n">
-        <v>359.2</v>
+        <v>359.3</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C29" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D29" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E29" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F29" t="n">
-        <v>3220</v>
+        <v>18.778</v>
       </c>
       <c r="G29" t="n">
-        <v>359.1333333333333</v>
+        <v>359.2</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1142,18 +1231,21 @@
         <v>359</v>
       </c>
       <c r="D30" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E30" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F30" t="n">
-        <v>3044.7141</v>
+        <v>3220</v>
       </c>
       <c r="G30" t="n">
-        <v>359.0833333333333</v>
+        <v>359.1333333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>359</v>
       </c>
       <c r="F31" t="n">
-        <v>896.6629</v>
+        <v>3044.7141</v>
       </c>
       <c r="G31" t="n">
-        <v>359.0666666666667</v>
+        <v>359.0833333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C32" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D32" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E32" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F32" t="n">
-        <v>2128.9233</v>
+        <v>896.6629</v>
       </c>
       <c r="G32" t="n">
-        <v>359</v>
+        <v>359.0666666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C33" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D33" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E33" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2128.9233</v>
       </c>
       <c r="G33" t="n">
-        <v>358.9666666666666</v>
+        <v>359</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>358</v>
       </c>
       <c r="C34" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D34" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E34" t="n">
         <v>358</v>
       </c>
       <c r="F34" t="n">
-        <v>1962.8919</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>358.9166666666667</v>
+        <v>358.9666666666666</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,7 +1370,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C35" t="n">
         <v>359</v>
@@ -1275,15 +1379,18 @@
         <v>359</v>
       </c>
       <c r="E35" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F35" t="n">
-        <v>635.2785</v>
+        <v>1962.8919</v>
       </c>
       <c r="G35" t="n">
-        <v>358.9</v>
+        <v>358.9166666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>359</v>
       </c>
       <c r="C36" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D36" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E36" t="n">
         <v>359</v>
       </c>
       <c r="F36" t="n">
-        <v>10693.248</v>
+        <v>635.2785</v>
       </c>
       <c r="G36" t="n">
-        <v>358.8666666666667</v>
+        <v>358.9</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C37" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D37" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E37" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F37" t="n">
-        <v>5269.4075</v>
+        <v>10693.248</v>
       </c>
       <c r="G37" t="n">
-        <v>358.85</v>
+        <v>358.8666666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,21 +1460,24 @@
         <v>360</v>
       </c>
       <c r="C38" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D38" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E38" t="n">
         <v>360</v>
       </c>
       <c r="F38" t="n">
-        <v>1.1818</v>
+        <v>5269.4075</v>
       </c>
       <c r="G38" t="n">
-        <v>358.8666666666667</v>
+        <v>358.85</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>360</v>
       </c>
       <c r="F39" t="n">
-        <v>2476.1537</v>
+        <v>1.1818</v>
       </c>
       <c r="G39" t="n">
-        <v>358.9</v>
+        <v>358.8666666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>360</v>
       </c>
       <c r="C40" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D40" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E40" t="n">
         <v>360</v>
       </c>
       <c r="F40" t="n">
-        <v>4048.62222458</v>
+        <v>2476.1537</v>
       </c>
       <c r="G40" t="n">
-        <v>358.9166666666667</v>
+        <v>358.9</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C41" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D41" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E41" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>4048.62222458</v>
       </c>
       <c r="G41" t="n">
-        <v>358.9833333333333</v>
+        <v>358.9166666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,7 +1573,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C42" t="n">
         <v>363</v>
@@ -1457,15 +1582,18 @@
         <v>363</v>
       </c>
       <c r="E42" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F42" t="n">
-        <v>1831.98789311</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>359.0666666666667</v>
+        <v>358.9833333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C43" t="n">
         <v>363</v>
@@ -1483,16 +1611,19 @@
         <v>363</v>
       </c>
       <c r="E43" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F43" t="n">
-        <v>3445.77961432</v>
+        <v>1831.98789311</v>
       </c>
       <c r="G43" t="n">
-        <v>359.15</v>
+        <v>359.0666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C44" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D44" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E44" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F44" t="n">
-        <v>5494.5054945</v>
+        <v>3445.77961432</v>
       </c>
       <c r="G44" t="n">
-        <v>359.25</v>
+        <v>359.15</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>364</v>
       </c>
       <c r="F45" t="n">
-        <v>927.4065000000001</v>
+        <v>5494.5054945</v>
       </c>
       <c r="G45" t="n">
-        <v>359.3</v>
+        <v>359.25</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,25 +1689,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C46" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D46" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E46" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F46" t="n">
-        <v>24.4823</v>
+        <v>927.4065000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>359.35</v>
+        <v>359.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1578,25 +1718,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C47" t="n">
         <v>362</v>
       </c>
       <c r="D47" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E47" t="n">
         <v>362</v>
       </c>
       <c r="F47" t="n">
+        <v>24.4823</v>
+      </c>
+      <c r="G47" t="n">
+        <v>359.35</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C48" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D48" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E48" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F48" t="n">
-        <v>2.7673</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>359.4166666666667</v>
+        <v>359.4</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C49" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D49" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E49" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F49" t="n">
-        <v>165.7978</v>
+        <v>2.7673</v>
       </c>
       <c r="G49" t="n">
-        <v>359.45</v>
+        <v>359.4166666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>360</v>
       </c>
       <c r="C50" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D50" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E50" t="n">
         <v>360</v>
       </c>
       <c r="F50" t="n">
-        <v>245.9999</v>
+        <v>165.7978</v>
       </c>
       <c r="G50" t="n">
-        <v>359.4666666666666</v>
+        <v>359.45</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C51" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D51" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E51" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F51" t="n">
-        <v>148.2026</v>
+        <v>245.9999</v>
       </c>
       <c r="G51" t="n">
-        <v>359.4833333333333</v>
+        <v>359.4666666666666</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D52" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E52" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F52" t="n">
-        <v>1483.181</v>
+        <v>148.2026</v>
       </c>
       <c r="G52" t="n">
-        <v>359.5</v>
+        <v>359.4833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C53" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D53" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E53" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F53" t="n">
-        <v>137.0562</v>
+        <v>1483.181</v>
       </c>
       <c r="G53" t="n">
-        <v>359.55</v>
+        <v>359.5</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,7 +1921,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C54" t="n">
         <v>363</v>
@@ -1769,15 +1930,18 @@
         <v>363</v>
       </c>
       <c r="E54" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F54" t="n">
-        <v>528</v>
+        <v>137.0562</v>
       </c>
       <c r="G54" t="n">
-        <v>359.6</v>
+        <v>359.55</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C55" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D55" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E55" t="n">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F55" t="n">
-        <v>37.162</v>
+        <v>528</v>
       </c>
       <c r="G55" t="n">
-        <v>359.6166666666667</v>
+        <v>359.6</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C56" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D56" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E56" t="n">
         <v>360</v>
       </c>
       <c r="F56" t="n">
-        <v>35.5532</v>
+        <v>37.162</v>
       </c>
       <c r="G56" t="n">
-        <v>359.65</v>
+        <v>359.6166666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,10 +2008,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C57" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D57" t="n">
         <v>361</v>
@@ -1850,12 +2020,15 @@
         <v>360</v>
       </c>
       <c r="F57" t="n">
-        <v>161.55</v>
+        <v>35.5532</v>
       </c>
       <c r="G57" t="n">
-        <v>359.6666666666667</v>
+        <v>359.65</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>361</v>
       </c>
       <c r="C58" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D58" t="n">
         <v>361</v>
       </c>
       <c r="E58" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F58" t="n">
-        <v>163.2658</v>
+        <v>161.55</v>
       </c>
       <c r="G58" t="n">
-        <v>359.7</v>
+        <v>359.6666666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,21 +2069,24 @@
         <v>361</v>
       </c>
       <c r="C59" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D59" t="n">
         <v>361</v>
       </c>
       <c r="E59" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F59" t="n">
-        <v>1291.8739</v>
+        <v>163.2658</v>
       </c>
       <c r="G59" t="n">
-        <v>359.7333333333333</v>
+        <v>359.7</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C60" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D60" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E60" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>1291.8739</v>
       </c>
       <c r="G60" t="n">
-        <v>359.8</v>
+        <v>359.7333333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C61" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D61" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E61" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F61" t="n">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>359.8166666666667</v>
+        <v>359.8</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>360</v>
       </c>
       <c r="C62" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D62" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E62" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F62" t="n">
-        <v>2997.9999</v>
+        <v>280</v>
       </c>
       <c r="G62" t="n">
-        <v>359.8833333333333</v>
+        <v>359.8166666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,21 +2185,24 @@
         <v>360</v>
       </c>
       <c r="C63" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D63" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E63" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F63" t="n">
-        <v>140.1444</v>
+        <v>2997.9999</v>
       </c>
       <c r="G63" t="n">
         <v>359.8833333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C64" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D64" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E64" t="n">
         <v>360</v>
       </c>
       <c r="F64" t="n">
-        <v>660</v>
+        <v>140.1444</v>
       </c>
       <c r="G64" t="n">
-        <v>359.9333333333333</v>
+        <v>359.8833333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C65" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D65" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E65" t="n">
         <v>360</v>
       </c>
       <c r="F65" t="n">
-        <v>234.0368</v>
+        <v>660</v>
       </c>
       <c r="G65" t="n">
         <v>359.9333333333333</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C66" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D66" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E66" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>234.0368</v>
       </c>
       <c r="G66" t="n">
-        <v>359.9833333333333</v>
+        <v>359.9333333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C67" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D67" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E67" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F67" t="n">
-        <v>172.7799</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>359.9666666666666</v>
+        <v>359.9833333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>360</v>
       </c>
       <c r="F68" t="n">
-        <v>178</v>
+        <v>172.7799</v>
       </c>
       <c r="G68" t="n">
-        <v>359.95</v>
+        <v>359.9666666666666</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C69" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D69" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E69" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="G69" t="n">
-        <v>359.9666666666666</v>
+        <v>359.95</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C70" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D70" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E70" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F70" t="n">
-        <v>3064.7302</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>359.9666666666666</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C71" t="n">
         <v>359</v>
       </c>
       <c r="D71" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E71" t="n">
         <v>359</v>
       </c>
       <c r="F71" t="n">
-        <v>225.0717</v>
+        <v>3064.7302</v>
       </c>
       <c r="G71" t="n">
-        <v>359.9333333333333</v>
+        <v>359.9666666666666</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C72" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D72" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E72" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>225.0717</v>
       </c>
       <c r="G72" t="n">
-        <v>359.9833333333333</v>
+        <v>359.9333333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>362</v>
       </c>
       <c r="F73" t="n">
-        <v>3109.7679558</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>360</v>
+        <v>359.9833333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C74" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D74" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E74" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F74" t="n">
-        <v>22.6882</v>
+        <v>3109.7679558</v>
       </c>
       <c r="G74" t="n">
-        <v>360.0166666666667</v>
+        <v>360</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C75" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D75" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E75" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F75" t="n">
-        <v>1395</v>
+        <v>22.6882</v>
       </c>
       <c r="G75" t="n">
         <v>360.0166666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C76" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D76" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E76" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>1395</v>
       </c>
       <c r="G76" t="n">
-        <v>360.0333333333334</v>
+        <v>360.0166666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C77" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D77" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E77" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F77" t="n">
-        <v>1899.7177</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
         <v>360.0333333333334</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C78" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D78" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E78" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>1899.7177</v>
       </c>
       <c r="G78" t="n">
-        <v>360.0166666666667</v>
+        <v>360.0333333333334</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>359</v>
       </c>
       <c r="F79" t="n">
-        <v>51.07</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>360.0333333333334</v>
+        <v>360.0166666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C80" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D80" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E80" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>51.07</v>
       </c>
       <c r="G80" t="n">
-        <v>360.0833333333333</v>
+        <v>360.0333333333334</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C81" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D81" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E81" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F81" t="n">
-        <v>387.4581</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>360.1166666666667</v>
+        <v>360.0833333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>359</v>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>387.4581</v>
       </c>
       <c r="G82" t="n">
-        <v>360.15</v>
+        <v>360.1166666666667</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>359</v>
       </c>
       <c r="F83" t="n">
-        <v>754.6732</v>
+        <v>300</v>
       </c>
       <c r="G83" t="n">
-        <v>360.2</v>
+        <v>360.15</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>359</v>
       </c>
       <c r="F84" t="n">
-        <v>221.6</v>
+        <v>754.6732</v>
       </c>
       <c r="G84" t="n">
-        <v>360.25</v>
+        <v>360.2</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C85" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D85" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E85" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F85" t="n">
-        <v>52.8897</v>
+        <v>221.6</v>
       </c>
       <c r="G85" t="n">
-        <v>360.2666666666667</v>
+        <v>360.25</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C86" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D86" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E86" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F86" t="n">
-        <v>23.2664</v>
+        <v>52.8897</v>
       </c>
       <c r="G86" t="n">
-        <v>360.3333333333333</v>
+        <v>360.2666666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C87" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D87" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E87" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F87" t="n">
-        <v>252.97</v>
+        <v>23.2664</v>
       </c>
       <c r="G87" t="n">
-        <v>360.35</v>
+        <v>360.3333333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>358</v>
       </c>
       <c r="F88" t="n">
-        <v>635.7919000000001</v>
+        <v>252.97</v>
       </c>
       <c r="G88" t="n">
-        <v>360.3666666666667</v>
+        <v>360.35</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C89" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D89" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E89" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F89" t="n">
-        <v>2019.4653</v>
+        <v>635.7919000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>360.4</v>
+        <v>360.3666666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>361</v>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>2019.4653</v>
       </c>
       <c r="G90" t="n">
-        <v>360.4333333333333</v>
+        <v>360.4</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>361</v>
       </c>
       <c r="F91" t="n">
-        <v>354.0166</v>
+        <v>200</v>
       </c>
       <c r="G91" t="n">
-        <v>360.4666666666666</v>
+        <v>360.4333333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>361</v>
       </c>
       <c r="F92" t="n">
-        <v>14</v>
+        <v>354.0166</v>
       </c>
       <c r="G92" t="n">
-        <v>360.55</v>
+        <v>360.4666666666666</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,21 +3055,24 @@
         <v>361</v>
       </c>
       <c r="C93" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D93" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E93" t="n">
         <v>361</v>
       </c>
       <c r="F93" t="n">
-        <v>8398.0321</v>
+        <v>14</v>
       </c>
       <c r="G93" t="n">
-        <v>360.6166666666667</v>
+        <v>360.55</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C94" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D94" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E94" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F94" t="n">
-        <v>24.2655</v>
+        <v>8398.0321</v>
       </c>
       <c r="G94" t="n">
-        <v>360.6333333333333</v>
+        <v>360.6166666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>360</v>
       </c>
       <c r="F95" t="n">
-        <v>917.3861000000001</v>
+        <v>24.2655</v>
       </c>
       <c r="G95" t="n">
-        <v>360.65</v>
+        <v>360.6333333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,21 +3142,24 @@
         <v>360</v>
       </c>
       <c r="C96" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D96" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E96" t="n">
         <v>360</v>
       </c>
       <c r="F96" t="n">
-        <v>1970.3388</v>
+        <v>917.3861000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>360.6666666666667</v>
+        <v>360.65</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2884,18 +3174,21 @@
         <v>361</v>
       </c>
       <c r="D97" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E97" t="n">
         <v>360</v>
       </c>
       <c r="F97" t="n">
-        <v>5472.5353</v>
+        <v>1970.3388</v>
       </c>
       <c r="G97" t="n">
         <v>360.6666666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>360</v>
       </c>
       <c r="C98" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D98" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E98" t="n">
         <v>360</v>
       </c>
       <c r="F98" t="n">
-        <v>60</v>
+        <v>5472.5353</v>
       </c>
       <c r="G98" t="n">
         <v>360.6666666666667</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>360</v>
       </c>
       <c r="C99" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D99" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E99" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F99" t="n">
-        <v>8758.248100000001</v>
+        <v>60</v>
       </c>
       <c r="G99" t="n">
-        <v>360.7166666666666</v>
+        <v>360.6666666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C100" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D100" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E100" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F100" t="n">
-        <v>1784.3618</v>
+        <v>8758.248100000001</v>
       </c>
       <c r="G100" t="n">
         <v>360.7166666666666</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>362</v>
       </c>
       <c r="C101" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D101" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E101" t="n">
         <v>362</v>
       </c>
       <c r="F101" t="n">
-        <v>2565.4407</v>
+        <v>1784.3618</v>
       </c>
       <c r="G101" t="n">
         <v>360.7166666666666</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,7 +3313,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C102" t="n">
         <v>363</v>
@@ -3017,15 +3322,18 @@
         <v>363</v>
       </c>
       <c r="E102" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F102" t="n">
-        <v>270.8815</v>
+        <v>2565.4407</v>
       </c>
       <c r="G102" t="n">
         <v>360.7166666666666</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>363</v>
       </c>
       <c r="F103" t="n">
-        <v>398.9476</v>
+        <v>270.8815</v>
       </c>
       <c r="G103" t="n">
         <v>360.7166666666666</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C104" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D104" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E104" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F104" t="n">
-        <v>2777.7777</v>
+        <v>398.9476</v>
       </c>
       <c r="G104" t="n">
-        <v>360.6666666666667</v>
+        <v>360.7166666666666</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C105" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D105" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E105" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F105" t="n">
-        <v>270.2043</v>
+        <v>2777.7777</v>
       </c>
       <c r="G105" t="n">
-        <v>360.6</v>
+        <v>360.6666666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>360</v>
       </c>
       <c r="F106" t="n">
-        <v>205.0404</v>
+        <v>270.2043</v>
       </c>
       <c r="G106" t="n">
-        <v>360.5666666666667</v>
+        <v>360.6</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C107" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D107" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E107" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>205.0404</v>
       </c>
       <c r="G107" t="n">
-        <v>360.55</v>
+        <v>360.5666666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,7 +3487,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C108" t="n">
         <v>361</v>
@@ -3173,15 +3496,18 @@
         <v>361</v>
       </c>
       <c r="E108" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F108" t="n">
-        <v>5951.5441</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v>360.55</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>360</v>
       </c>
       <c r="C109" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D109" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E109" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F109" t="n">
-        <v>4230.7891</v>
+        <v>5951.5441</v>
       </c>
       <c r="G109" t="n">
-        <v>360.5</v>
+        <v>360.55</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C110" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D110" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E110" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>4230.7891</v>
       </c>
       <c r="G110" t="n">
-        <v>360.5166666666667</v>
+        <v>360.5</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C111" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D111" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E111" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F111" t="n">
-        <v>2.159</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>360.4833333333333</v>
+        <v>360.5166666666667</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>359</v>
       </c>
       <c r="F112" t="n">
-        <v>4991.7239</v>
+        <v>2.159</v>
       </c>
       <c r="G112" t="n">
-        <v>360.4666666666666</v>
+        <v>360.4833333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C113" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D113" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E113" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F113" t="n">
-        <v>79.92870000000001</v>
+        <v>4991.7239</v>
       </c>
       <c r="G113" t="n">
-        <v>360.3833333333333</v>
+        <v>360.4666666666666</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C114" t="n">
         <v>358</v>
       </c>
       <c r="D114" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E114" t="n">
         <v>358</v>
       </c>
       <c r="F114" t="n">
-        <v>13724.3553</v>
+        <v>79.92870000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>360.3</v>
+        <v>360.3833333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C115" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D115" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E115" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>13724.3553</v>
       </c>
       <c r="G115" t="n">
         <v>360.3</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C116" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D116" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E116" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F116" t="n">
-        <v>1686.9759</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>360.25</v>
+        <v>360.3</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>358</v>
       </c>
       <c r="F117" t="n">
-        <v>370.2049</v>
+        <v>1686.9759</v>
       </c>
       <c r="G117" t="n">
-        <v>360.2166666666666</v>
+        <v>360.25</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C118" t="n">
         <v>358</v>
       </c>
       <c r="D118" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E118" t="n">
         <v>358</v>
       </c>
       <c r="F118" t="n">
-        <v>40.7455</v>
+        <v>370.2049</v>
       </c>
       <c r="G118" t="n">
-        <v>360.1666666666667</v>
+        <v>360.2166666666666</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>359</v>
       </c>
       <c r="C119" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D119" t="n">
         <v>359</v>
       </c>
       <c r="E119" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F119" t="n">
-        <v>123.453</v>
+        <v>40.7455</v>
       </c>
       <c r="G119" t="n">
-        <v>360.15</v>
+        <v>360.1666666666667</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>359</v>
       </c>
       <c r="F120" t="n">
-        <v>449</v>
+        <v>123.453</v>
       </c>
       <c r="G120" t="n">
-        <v>360.1</v>
+        <v>360.15</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C121" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D121" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E121" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F121" t="n">
-        <v>3000</v>
+        <v>449</v>
       </c>
       <c r="G121" t="n">
-        <v>360.05</v>
+        <v>360.1</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C122" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D122" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E122" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F122" t="n">
-        <v>130</v>
+        <v>3000</v>
       </c>
       <c r="G122" t="n">
-        <v>360</v>
+        <v>360.05</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>359</v>
       </c>
       <c r="F123" t="n">
-        <v>1056.7848</v>
+        <v>130</v>
       </c>
       <c r="G123" t="n">
-        <v>359.9833333333333</v>
+        <v>360</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>359</v>
       </c>
       <c r="F124" t="n">
-        <v>3513.4322</v>
+        <v>1056.7848</v>
       </c>
       <c r="G124" t="n">
-        <v>359.9333333333333</v>
+        <v>359.9833333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C125" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D125" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E125" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F125" t="n">
-        <v>2702.2486</v>
+        <v>3513.4322</v>
       </c>
       <c r="G125" t="n">
         <v>359.9333333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>360</v>
       </c>
       <c r="F126" t="n">
-        <v>1947.5111</v>
+        <v>2702.2486</v>
       </c>
       <c r="G126" t="n">
-        <v>359.9</v>
+        <v>359.9333333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>360</v>
       </c>
       <c r="C127" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D127" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E127" t="n">
         <v>360</v>
       </c>
       <c r="F127" t="n">
-        <v>596.0362</v>
+        <v>1947.5111</v>
       </c>
       <c r="G127" t="n">
-        <v>359.9166666666667</v>
+        <v>359.9</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,21 +4070,24 @@
         <v>360</v>
       </c>
       <c r="C128" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D128" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E128" t="n">
         <v>360</v>
       </c>
       <c r="F128" t="n">
-        <v>1110.238</v>
+        <v>596.0362</v>
       </c>
       <c r="G128" t="n">
         <v>359.9166666666667</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C129" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D129" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E129" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F129" t="n">
-        <v>3.7624</v>
+        <v>1110.238</v>
       </c>
       <c r="G129" t="n">
-        <v>359.9</v>
+        <v>359.9166666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C130" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D130" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E130" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F130" t="n">
-        <v>1399.5899</v>
+        <v>3.7624</v>
       </c>
       <c r="G130" t="n">
-        <v>359.9166666666667</v>
+        <v>359.9</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>360</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0001</v>
+        <v>1399.5899</v>
       </c>
       <c r="G131" t="n">
-        <v>359.9333333333333</v>
+        <v>359.9166666666667</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C132" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D132" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E132" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F132" t="n">
-        <v>37.6888</v>
+        <v>0.0001</v>
       </c>
       <c r="G132" t="n">
-        <v>359.9166666666667</v>
+        <v>359.9333333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C133" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D133" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E133" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F133" t="n">
-        <v>4315.9733</v>
+        <v>37.6888</v>
       </c>
       <c r="G133" t="n">
-        <v>359.8833333333333</v>
+        <v>359.9166666666667</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C134" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D134" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E134" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>4315.9733</v>
       </c>
       <c r="G134" t="n">
-        <v>359.9</v>
+        <v>359.8833333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C135" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D135" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E135" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F135" t="n">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G135" t="n">
         <v>359.9</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3904,12 +4311,15 @@
         <v>359</v>
       </c>
       <c r="F136" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G136" t="n">
-        <v>359.8666666666667</v>
+        <v>359.9</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C137" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D137" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E137" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="G137" t="n">
-        <v>359.9166666666667</v>
+        <v>359.8666666666667</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C138" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D138" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E138" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>359.9166666666667</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C139" t="n">
         <v>359</v>
       </c>
       <c r="D139" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E139" t="n">
         <v>359</v>
       </c>
       <c r="F139" t="n">
-        <v>76.1075</v>
+        <v>3</v>
       </c>
       <c r="G139" t="n">
         <v>359.9166666666667</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C140" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D140" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E140" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F140" t="n">
-        <v>24.1377</v>
+        <v>76.1075</v>
       </c>
       <c r="G140" t="n">
-        <v>359.9333333333333</v>
+        <v>359.9166666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C141" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D141" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E141" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F141" t="n">
-        <v>3173.0918</v>
+        <v>24.1377</v>
       </c>
       <c r="G141" t="n">
         <v>359.9333333333333</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>359</v>
       </c>
       <c r="F142" t="n">
-        <v>2911.9999</v>
+        <v>3173.0918</v>
       </c>
       <c r="G142" t="n">
         <v>359.9333333333333</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4077,21 +4505,24 @@
         <v>360</v>
       </c>
       <c r="C143" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D143" t="n">
         <v>360</v>
       </c>
       <c r="E143" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>2911.9999</v>
       </c>
       <c r="G143" t="n">
-        <v>359.95</v>
+        <v>359.9333333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C144" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D144" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E144" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F144" t="n">
-        <v>425.9592</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
         <v>359.95</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C145" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D145" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E145" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>425.9592</v>
       </c>
       <c r="G145" t="n">
-        <v>359.9833333333333</v>
+        <v>359.95</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C146" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D146" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E146" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F146" t="n">
-        <v>393.6402</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>359.9666666666666</v>
+        <v>359.9833333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C147" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D147" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E147" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>393.6402</v>
       </c>
       <c r="G147" t="n">
-        <v>360</v>
+        <v>359.9666666666666</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>360</v>
       </c>
       <c r="F148" t="n">
-        <v>1.3777</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>360.0333333333334</v>
+        <v>360</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>360</v>
       </c>
       <c r="F149" t="n">
-        <v>99</v>
+        <v>1.3777</v>
       </c>
       <c r="G149" t="n">
-        <v>360.0166666666667</v>
+        <v>360.0333333333334</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>360</v>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="G150" t="n">
-        <v>360</v>
+        <v>360.0166666666667</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C151" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D151" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E151" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F151" t="n">
-        <v>746.1553</v>
+        <v>200</v>
       </c>
       <c r="G151" t="n">
-        <v>359.9666666666666</v>
+        <v>360</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,533 +4775,16 @@
         <v>359</v>
       </c>
       <c r="F152" t="n">
-        <v>1081.3876</v>
+        <v>746.1553</v>
       </c>
       <c r="G152" t="n">
-        <v>359.9333333333333</v>
+        <v>359.9666666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>359</v>
-      </c>
-      <c r="C153" t="n">
-        <v>359</v>
-      </c>
-      <c r="D153" t="n">
-        <v>359</v>
-      </c>
-      <c r="E153" t="n">
-        <v>359</v>
-      </c>
-      <c r="F153" t="n">
-        <v>86</v>
-      </c>
-      <c r="G153" t="n">
-        <v>359.8833333333333</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>358</v>
-      </c>
-      <c r="C154" t="n">
-        <v>358</v>
-      </c>
-      <c r="D154" t="n">
-        <v>358</v>
-      </c>
-      <c r="E154" t="n">
-        <v>358</v>
-      </c>
-      <c r="F154" t="n">
-        <v>505.7204</v>
-      </c>
-      <c r="G154" t="n">
-        <v>359.85</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>359</v>
-      </c>
-      <c r="C155" t="n">
-        <v>359</v>
-      </c>
-      <c r="D155" t="n">
-        <v>359</v>
-      </c>
-      <c r="E155" t="n">
-        <v>359</v>
-      </c>
-      <c r="F155" t="n">
-        <v>102.7993</v>
-      </c>
-      <c r="G155" t="n">
-        <v>359.8333333333333</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>359</v>
-      </c>
-      <c r="C156" t="n">
-        <v>359</v>
-      </c>
-      <c r="D156" t="n">
-        <v>359</v>
-      </c>
-      <c r="E156" t="n">
-        <v>359</v>
-      </c>
-      <c r="F156" t="n">
-        <v>916.0468</v>
-      </c>
-      <c r="G156" t="n">
-        <v>359.8</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>359</v>
-      </c>
-      <c r="C157" t="n">
-        <v>359</v>
-      </c>
-      <c r="D157" t="n">
-        <v>359</v>
-      </c>
-      <c r="E157" t="n">
-        <v>359</v>
-      </c>
-      <c r="F157" t="n">
-        <v>711.4961</v>
-      </c>
-      <c r="G157" t="n">
-        <v>359.7666666666667</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>359</v>
-      </c>
-      <c r="C158" t="n">
-        <v>358</v>
-      </c>
-      <c r="D158" t="n">
-        <v>359</v>
-      </c>
-      <c r="E158" t="n">
-        <v>358</v>
-      </c>
-      <c r="F158" t="n">
-        <v>5756.716</v>
-      </c>
-      <c r="G158" t="n">
-        <v>359.7333333333333</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>358</v>
-      </c>
-      <c r="C159" t="n">
-        <v>358</v>
-      </c>
-      <c r="D159" t="n">
-        <v>358</v>
-      </c>
-      <c r="E159" t="n">
-        <v>358</v>
-      </c>
-      <c r="F159" t="n">
-        <v>600</v>
-      </c>
-      <c r="G159" t="n">
-        <v>359.65</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>359</v>
-      </c>
-      <c r="C160" t="n">
-        <v>360</v>
-      </c>
-      <c r="D160" t="n">
-        <v>360</v>
-      </c>
-      <c r="E160" t="n">
-        <v>359</v>
-      </c>
-      <c r="F160" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="G160" t="n">
-        <v>359.6166666666667</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>360</v>
-      </c>
-      <c r="C161" t="n">
-        <v>361</v>
-      </c>
-      <c r="D161" t="n">
-        <v>361</v>
-      </c>
-      <c r="E161" t="n">
-        <v>360</v>
-      </c>
-      <c r="F161" t="n">
-        <v>263.3646</v>
-      </c>
-      <c r="G161" t="n">
-        <v>359.5833333333333</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>360</v>
-      </c>
-      <c r="C162" t="n">
-        <v>359</v>
-      </c>
-      <c r="D162" t="n">
-        <v>360</v>
-      </c>
-      <c r="E162" t="n">
-        <v>359</v>
-      </c>
-      <c r="F162" t="n">
-        <v>5000.3872</v>
-      </c>
-      <c r="G162" t="n">
-        <v>359.5166666666667</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>359</v>
-      </c>
-      <c r="C163" t="n">
-        <v>360</v>
-      </c>
-      <c r="D163" t="n">
-        <v>360</v>
-      </c>
-      <c r="E163" t="n">
-        <v>359</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1777.0394</v>
-      </c>
-      <c r="G163" t="n">
-        <v>359.4666666666666</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>359</v>
-      </c>
-      <c r="C164" t="n">
-        <v>359</v>
-      </c>
-      <c r="D164" t="n">
-        <v>359</v>
-      </c>
-      <c r="E164" t="n">
-        <v>359</v>
-      </c>
-      <c r="F164" t="n">
-        <v>654</v>
-      </c>
-      <c r="G164" t="n">
-        <v>359.4333333333333</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>359</v>
-      </c>
-      <c r="C165" t="n">
-        <v>358</v>
-      </c>
-      <c r="D165" t="n">
-        <v>359</v>
-      </c>
-      <c r="E165" t="n">
-        <v>358</v>
-      </c>
-      <c r="F165" t="n">
-        <v>5756.716</v>
-      </c>
-      <c r="G165" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>358</v>
-      </c>
-      <c r="C166" t="n">
-        <v>358</v>
-      </c>
-      <c r="D166" t="n">
-        <v>358</v>
-      </c>
-      <c r="E166" t="n">
-        <v>358</v>
-      </c>
-      <c r="F166" t="n">
-        <v>5375.5483</v>
-      </c>
-      <c r="G166" t="n">
-        <v>359.3666666666667</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>358</v>
-      </c>
-      <c r="C167" t="n">
-        <v>357</v>
-      </c>
-      <c r="D167" t="n">
-        <v>358</v>
-      </c>
-      <c r="E167" t="n">
-        <v>357</v>
-      </c>
-      <c r="F167" t="n">
-        <v>9567.636200000001</v>
-      </c>
-      <c r="G167" t="n">
-        <v>359.3</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>359</v>
-      </c>
-      <c r="C168" t="n">
-        <v>357</v>
-      </c>
-      <c r="D168" t="n">
-        <v>359</v>
-      </c>
-      <c r="E168" t="n">
-        <v>357</v>
-      </c>
-      <c r="F168" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G168" t="n">
-        <v>359.2333333333333</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>357</v>
-      </c>
-      <c r="C169" t="n">
-        <v>356</v>
-      </c>
-      <c r="D169" t="n">
-        <v>357</v>
-      </c>
-      <c r="E169" t="n">
-        <v>356</v>
-      </c>
-      <c r="F169" t="n">
-        <v>4759.6378</v>
-      </c>
-      <c r="G169" t="n">
-        <v>359.1833333333333</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>356</v>
-      </c>
-      <c r="C170" t="n">
-        <v>356</v>
-      </c>
-      <c r="D170" t="n">
-        <v>356</v>
-      </c>
-      <c r="E170" t="n">
-        <v>356</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2778.5515</v>
-      </c>
-      <c r="G170" t="n">
-        <v>359.1</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>358</v>
-      </c>
-      <c r="C171" t="n">
-        <v>358</v>
-      </c>
-      <c r="D171" t="n">
-        <v>358</v>
-      </c>
-      <c r="E171" t="n">
-        <v>358</v>
-      </c>
-      <c r="F171" t="n">
-        <v>631.2993</v>
-      </c>
-      <c r="G171" t="n">
-        <v>359.0833333333333</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>359</v>
-      </c>
-      <c r="C172" t="n">
-        <v>359</v>
-      </c>
-      <c r="D172" t="n">
-        <v>359</v>
-      </c>
-      <c r="E172" t="n">
-        <v>359</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1680</v>
-      </c>
-      <c r="G172" t="n">
-        <v>359.0833333333333</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
+      <c r="I152" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
